--- a/صيدليات دكتور مصطفي طلعت_2026-01-15_21-06.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-15_21-06.xlsx
@@ -227,6 +227,9 @@
     <t>GAST-REG 200 MG 30 TABS.</t>
   </si>
   <si>
+    <t>ICOMOVE 20TAB</t>
+  </si>
+  <si>
     <t>ITOPRIDE 50MG 30 SCORED TAB</t>
   </si>
   <si>
@@ -438,6 +441,9 @@
   </si>
   <si>
     <t>14:0</t>
+  </si>
+  <si>
+    <t>YEAST MEPACO 60 TABS</t>
   </si>
   <si>
     <t>ZADOGLOBIN 20 CAPS</t>
@@ -1839,17 +1845,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -2307,17 +2313,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>18</v>
+        <v>290</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2333,17 +2339,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2359,13 +2365,13 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
@@ -2385,13 +2391,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
@@ -2411,17 +2417,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2429,7 +2435,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2437,17 +2443,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2463,17 +2469,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2489,17 +2495,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2515,13 +2521,13 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
@@ -2541,17 +2547,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2567,17 +2573,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2593,17 +2599,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2611,7 +2617,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2619,17 +2625,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2645,17 +2651,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2671,17 +2677,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2697,13 +2703,13 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>68</v>
+        <v>152</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
@@ -2723,13 +2729,13 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
@@ -2749,17 +2755,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>92</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2767,7 +2773,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2775,17 +2781,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>19.5</v>
+        <v>48</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>9</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2801,17 +2807,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>12</v>
+        <v>19.5</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2819,7 +2825,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2827,17 +2833,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2853,13 +2859,13 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
@@ -2879,13 +2885,13 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
@@ -2897,7 +2903,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2905,17 +2911,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2931,17 +2937,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2957,13 +2963,13 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
@@ -2975,7 +2981,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2983,13 +2989,13 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
@@ -3009,17 +3015,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -3035,17 +3041,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -3061,13 +3067,13 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
@@ -3087,13 +3093,13 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
@@ -3113,13 +3119,13 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
@@ -3139,17 +3145,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3165,17 +3171,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3191,17 +3197,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3209,7 +3215,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3217,17 +3223,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3235,7 +3241,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3243,17 +3249,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>20.399999999999999</v>
+        <v>15</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3261,7 +3267,7 @@
         <v>84</v>
       </c>
       <c t="s" r="B87" s="7">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -3269,13 +3275,13 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>26</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
@@ -3287,7 +3293,7 @@
         <v>85</v>
       </c>
       <c t="s" r="B88" s="7">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -3295,17 +3301,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3321,17 +3327,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>175</v>
+        <v>23</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
-        <v>103</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3347,17 +3353,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>149.5</v>
+        <v>175</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
-        <v>9</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3373,13 +3379,13 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>39</v>
+        <v>149.5</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
@@ -3405,11 +3411,11 @@
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3425,13 +3431,13 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>-17.09</v>
+        <v>80</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
@@ -3451,17 +3457,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>23</v>
+        <v>-17.09</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3477,13 +3483,13 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
@@ -3503,17 +3509,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3529,17 +3535,17 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3555,13 +3561,13 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
@@ -3581,17 +3587,17 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" ht="25.5" customHeight="1">
@@ -3613,7 +3619,7 @@
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>32.5</v>
+        <v>18</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
@@ -3633,17 +3639,17 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>26</v>
+        <v>32.5</v>
       </c>
       <c r="M101" s="9"/>
       <c t="s" r="N101" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -3659,13 +3665,13 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M102" s="9"/>
       <c t="s" r="N102" s="7">
@@ -3691,7 +3697,7 @@
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="M103" s="9"/>
       <c t="s" r="N103" s="7">
@@ -3711,17 +3717,17 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="M104" s="9"/>
       <c t="s" r="N104" s="7">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" ht="25.5" customHeight="1">
@@ -3729,7 +3735,7 @@
         <v>102</v>
       </c>
       <c t="s" r="B105" s="7">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -3737,17 +3743,17 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="M105" s="9"/>
       <c t="s" r="N105" s="7">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" ht="24.75" customHeight="1">
@@ -3763,17 +3769,17 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>94.5</v>
+        <v>56</v>
       </c>
       <c r="M106" s="9"/>
       <c t="s" r="N106" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -3789,17 +3795,17 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>66.640000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="M107" s="9"/>
       <c t="s" r="N107" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108" ht="25.5" customHeight="1">
@@ -3815,17 +3821,17 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c t="s" r="H108" s="8">
-        <v>142</v>
+        <v>9</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>34</v>
+        <v>66.640000000000001</v>
       </c>
       <c r="M108" s="9"/>
       <c t="s" r="N108" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="24.75" customHeight="1">
@@ -3833,7 +3839,7 @@
         <v>106</v>
       </c>
       <c t="s" r="B109" s="7">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -3841,13 +3847,13 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>133.65000000000001</v>
+        <v>34</v>
       </c>
       <c r="M109" s="9"/>
       <c t="s" r="N109" s="7">
@@ -3867,17 +3873,17 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>66.959999999999994</v>
+        <v>60</v>
       </c>
       <c r="M110" s="9"/>
       <c t="s" r="N110" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" ht="24.75" customHeight="1">
@@ -3893,13 +3899,13 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>-375</v>
+        <v>133.65000000000001</v>
       </c>
       <c r="M111" s="9"/>
       <c t="s" r="N111" s="7">
@@ -3919,17 +3925,17 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c t="s" r="H112" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>50</v>
+        <v>66.959999999999994</v>
       </c>
       <c r="M112" s="9"/>
       <c t="s" r="N112" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" ht="25.5" customHeight="1">
@@ -3945,13 +3951,13 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>25</v>
+        <v>-375</v>
       </c>
       <c r="M113" s="9"/>
       <c t="s" r="N113" s="7">
@@ -3971,17 +3977,17 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="M114" s="9"/>
       <c t="s" r="N114" s="7">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" ht="25.5" customHeight="1">
@@ -3997,13 +4003,13 @@
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c t="s" r="H115" s="8">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M115" s="9"/>
       <c t="s" r="N115" s="7">
@@ -4023,17 +4029,17 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c t="s" r="H116" s="8">
-        <v>151</v>
+        <v>23</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="9">
-        <v>29.879999999999999</v>
+        <v>14</v>
       </c>
       <c r="M116" s="9"/>
       <c t="s" r="N116" s="7">
-        <v>152</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -4041,7 +4047,7 @@
         <v>114</v>
       </c>
       <c t="s" r="B117" s="7">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
@@ -4049,13 +4055,13 @@
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c t="s" r="H117" s="8">
-        <v>151</v>
+        <v>23</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="9">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="M117" s="9"/>
       <c t="s" r="N117" s="7">
@@ -4067,7 +4073,7 @@
         <v>115</v>
       </c>
       <c t="s" r="B118" s="7">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
@@ -4075,17 +4081,17 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c t="s" r="H118" s="8">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
       <c r="L118" s="9">
-        <v>188.09999999999999</v>
+        <v>29.879999999999999</v>
       </c>
       <c r="M118" s="9"/>
       <c t="s" r="N118" s="7">
-        <v>9</v>
+        <v>154</v>
       </c>
     </row>
     <row r="119" ht="24.75" customHeight="1">
@@ -4101,17 +4107,17 @@
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c t="s" r="H119" s="8">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
       <c r="L119" s="9">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="M119" s="9"/>
       <c t="s" r="N119" s="7">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120" ht="25.5" customHeight="1">
@@ -4133,7 +4139,7 @@
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
       <c r="L120" s="9">
-        <v>50</v>
+        <v>188.09999999999999</v>
       </c>
       <c r="M120" s="9"/>
       <c t="s" r="N120" s="7">
@@ -4153,17 +4159,17 @@
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c t="s" r="H121" s="8">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
       <c r="L121" s="9">
-        <v>210</v>
+        <v>36</v>
       </c>
       <c r="M121" s="9"/>
       <c t="s" r="N121" s="7">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -4179,13 +4185,13 @@
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c t="s" r="H122" s="8">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
       <c r="L122" s="9">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="M122" s="9"/>
       <c t="s" r="N122" s="7">
@@ -4205,13 +4211,13 @@
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c t="s" r="H123" s="8">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
       <c r="L123" s="9">
-        <v>15</v>
+        <v>210</v>
       </c>
       <c r="M123" s="9"/>
       <c t="s" r="N123" s="7">
@@ -4223,7 +4229,7 @@
         <v>121</v>
       </c>
       <c t="s" r="B124" s="7">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
@@ -4231,13 +4237,13 @@
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c t="s" r="H124" s="8">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
       <c r="K124" s="8"/>
       <c r="L124" s="9">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="M124" s="9"/>
       <c t="s" r="N124" s="7">
@@ -4249,7 +4255,7 @@
         <v>122</v>
       </c>
       <c t="s" r="B125" s="7">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
@@ -4257,13 +4263,13 @@
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c t="s" r="H125" s="8">
-        <v>23</v>
+        <v>162</v>
       </c>
       <c r="I125" s="8"/>
       <c r="J125" s="8"/>
       <c r="K125" s="8"/>
       <c r="L125" s="9">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M125" s="9"/>
       <c t="s" r="N125" s="7">
@@ -4289,7 +4295,7 @@
       <c r="J126" s="8"/>
       <c r="K126" s="8"/>
       <c r="L126" s="9">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="M126" s="9"/>
       <c t="s" r="N126" s="7">
@@ -4309,13 +4315,13 @@
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c t="s" r="H127" s="8">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="I127" s="8"/>
       <c r="J127" s="8"/>
       <c r="K127" s="8"/>
       <c r="L127" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M127" s="9"/>
       <c t="s" r="N127" s="7">
@@ -4335,13 +4341,13 @@
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c t="s" r="H128" s="8">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="I128" s="8"/>
       <c r="J128" s="8"/>
       <c r="K128" s="8"/>
       <c r="L128" s="9">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="M128" s="9"/>
       <c t="s" r="N128" s="7">
@@ -4361,13 +4367,13 @@
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
       <c t="s" r="H129" s="8">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="I129" s="8"/>
       <c r="J129" s="8"/>
       <c r="K129" s="8"/>
       <c r="L129" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M129" s="9"/>
       <c t="s" r="N129" s="7">
@@ -4387,13 +4393,13 @@
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
       <c t="s" r="H130" s="8">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I130" s="8"/>
       <c r="J130" s="8"/>
       <c r="K130" s="8"/>
       <c r="L130" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M130" s="9"/>
       <c t="s" r="N130" s="7">
@@ -4413,51 +4419,103 @@
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
       <c t="s" r="H131" s="8">
-        <v>169</v>
+        <v>104</v>
       </c>
       <c r="I131" s="8"/>
       <c r="J131" s="8"/>
       <c r="K131" s="8"/>
       <c r="L131" s="9">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M131" s="9"/>
       <c t="s" r="N131" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="132" ht="26.25" customHeight="1">
-      <c r="K132" s="10">
-        <v>5934.75</v>
-      </c>
-      <c r="L132" s="10"/>
-      <c r="M132" s="10"/>
-      <c r="N132" s="10"/>
-    </row>
-    <row r="133" ht="16.5" customHeight="1">
-      <c t="s" r="A133" s="11">
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="6">
+        <v>129</v>
+      </c>
+      <c t="s" r="B132" s="7">
+        <v>169</v>
+      </c>
+      <c r="C132" s="7"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="7"/>
+      <c r="G132" s="7"/>
+      <c t="s" r="H132" s="8">
+        <v>12</v>
+      </c>
+      <c r="I132" s="8"/>
+      <c r="J132" s="8"/>
+      <c r="K132" s="8"/>
+      <c r="L132" s="9">
+        <v>20</v>
+      </c>
+      <c r="M132" s="9"/>
+      <c t="s" r="N132" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" ht="25.5" customHeight="1">
+      <c r="A133" s="6">
+        <v>130</v>
+      </c>
+      <c t="s" r="B133" s="7">
         <v>170</v>
       </c>
-      <c r="B133" s="11"/>
-      <c r="C133" s="11"/>
-      <c r="D133" s="11"/>
-      <c r="E133" s="11"/>
-      <c t="s" r="F133" s="12">
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="7"/>
+      <c r="G133" s="7"/>
+      <c t="s" r="H133" s="8">
         <v>171</v>
       </c>
-      <c r="G133" s="12"/>
-      <c r="H133" s="13"/>
-      <c t="s" r="I133" s="14">
+      <c r="I133" s="8"/>
+      <c r="J133" s="8"/>
+      <c r="K133" s="8"/>
+      <c r="L133" s="9">
+        <v>45</v>
+      </c>
+      <c r="M133" s="9"/>
+      <c t="s" r="N133" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="K134" s="10">
+        <v>6367.75</v>
+      </c>
+      <c r="L134" s="10"/>
+      <c r="M134" s="10"/>
+      <c r="N134" s="10"/>
+    </row>
+    <row r="135" ht="16.5" customHeight="1">
+      <c t="s" r="A135" s="11">
         <v>172</v>
       </c>
-      <c r="J133" s="14"/>
-      <c r="K133" s="14"/>
-      <c r="L133" s="14"/>
-      <c r="M133" s="14"/>
-      <c r="N133" s="14"/>
+      <c r="B135" s="11"/>
+      <c r="C135" s="11"/>
+      <c r="D135" s="11"/>
+      <c r="E135" s="11"/>
+      <c t="s" r="F135" s="12">
+        <v>173</v>
+      </c>
+      <c r="G135" s="12"/>
+      <c r="H135" s="13"/>
+      <c t="s" r="I135" s="14">
+        <v>174</v>
+      </c>
+      <c r="J135" s="14"/>
+      <c r="K135" s="14"/>
+      <c r="L135" s="14"/>
+      <c r="M135" s="14"/>
+      <c r="N135" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="395">
+  <mergeCells count="401">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4849,10 +4907,16 @@
     <mergeCell ref="B131:G131"/>
     <mergeCell ref="H131:K131"/>
     <mergeCell ref="L131:M131"/>
-    <mergeCell ref="K132:N132"/>
-    <mergeCell ref="A133:E133"/>
-    <mergeCell ref="F133:G133"/>
-    <mergeCell ref="I133:N133"/>
+    <mergeCell ref="B132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="B133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="K134:N134"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="F135:G135"/>
+    <mergeCell ref="I135:N135"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
